--- a/visuals_probe_attack_length_stats.xlsx
+++ b/visuals_probe_attack_length_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Documents\GitHub\ids_svm_slidingwindow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mountrouidoux/Documents/GitHub/ids_svm_slidingwindow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9662DE65-207D-41E0-AFED-948115B4EAE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84501131-F138-1541-BB9C-71DD9ADF461D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C4F43CE-2409-4D88-9D30-22745FD8D806}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{5C4F43CE-2409-4D88-9D30-22745FD8D806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2590,12 +2590,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>-0.39729140940376129</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0.58219178100000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>300</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0.89130434800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>600</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>2.0576129999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>700</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0.90225563900000005</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>800</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0.47619047599999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>900</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1.3637250000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>6.4267350000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>0.103922</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.19711129999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>1</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4.1322310000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G17">
         <v>1</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>3.3112583000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G18">
         <v>1</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>4.6511627999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G19">
         <v>1</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0.107038123</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G20">
         <v>1</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>7.3333333000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G21">
         <v>1</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0.20622568099999999</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G22">
         <v>1</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>2.677376E-3</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G23">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.180147059</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G24">
         <v>1</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
       <c r="H25">
         <f>SUM(50523-53060)*-1 + 1</f>
         <v>2538</v>
@@ -3037,7 +3037,7 @@
         <v>5.8313632999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>1</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0.136538462</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G27">
         <v>1</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0.21298405500000001</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G28">
         <v>1</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>3.3622560000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G29">
         <v>1</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>2.5862069000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>1</v>
       </c>
